--- a/data/trans_bre/P0901-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.724311050703598</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.240721676813777</v>
+        <v>5.240721676813774</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.618960500452333</v>
@@ -649,7 +649,7 @@
         <v>0.2828586018966838</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6502141149443806</v>
+        <v>0.6502141149443803</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2163846531562978</v>
+        <v>-0.003952326389091922</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.213633646170773</v>
+        <v>1.472393437276151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.600357873667573</v>
+        <v>-2.058615197391723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.791046173704996</v>
+        <v>1.451650675944351</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.001927564994479022</v>
+        <v>-0.0123632253894719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1399234587271005</v>
+        <v>0.1456735326201142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1762081564228695</v>
+        <v>-0.1865393788336937</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1756035202144853</v>
+        <v>0.1431927793506745</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.540089495705203</v>
+        <v>9.399456854290682</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.21667716748808</v>
+        <v>10.39325566361477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.702988255790388</v>
+        <v>7.36370668562497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.964490012887309</v>
+        <v>8.560164064536002</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.446192822473638</v>
+        <v>1.533068043421818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.206677520966134</v>
+        <v>2.404661499441997</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9941069147651573</v>
+        <v>0.9444943423453415</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.380352804937623</v>
+        <v>1.275062181057121</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.587417085503198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.712968025166499</v>
+        <v>4.712968025166497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9231141650748306</v>
@@ -749,7 +749,7 @@
         <v>0.6833257374142273</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4613179200057748</v>
+        <v>0.4613179200057747</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8475301332886497</v>
+        <v>0.7126809584627168</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.971193245599656</v>
+        <v>-5.042210707288543</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1688952259324193</v>
+        <v>0.3443719435947084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.746668817607037</v>
+        <v>1.109572678382547</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06584255884409712</v>
+        <v>0.07713342055065567</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3463473871079851</v>
+        <v>-0.3589897677258725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.004558167361085833</v>
+        <v>0.01870584206722375</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04056521624947973</v>
+        <v>0.07548334217331558</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.875953257250352</v>
+        <v>8.676928415873046</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.001656416185448</v>
+        <v>5.465102099455437</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.38179228087334</v>
+        <v>8.824124764282566</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.644943513555868</v>
+        <v>8.94572630372069</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.449091199049975</v>
+        <v>2.378667038992132</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4997163522819678</v>
+        <v>0.5664597662198284</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.81552124194967</v>
+        <v>1.705693923711324</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.041664392840099</v>
+        <v>1.080194849157516</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>12.09516486642084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.707017946927564</v>
+        <v>9.707017946927571</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.232616494787744</v>
@@ -849,7 +849,7 @@
         <v>1.180018191301315</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6387257390428578</v>
+        <v>0.6387257390428583</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.113416998969608</v>
+        <v>5.64053431410973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8698352676552015</v>
+        <v>0.7130960381319424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.656393385012746</v>
+        <v>5.53348452259967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.722850909123306</v>
+        <v>3.828442476466285</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4406474409093854</v>
+        <v>0.4565477408524837</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05171689100035646</v>
+        <v>0.04721549441760164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4754337621415813</v>
+        <v>0.4442617393726295</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2304329195489479</v>
+        <v>0.2261641491335868</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.50530360237707</v>
+        <v>19.49664756004329</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.05480909066951</v>
+        <v>12.62042203033418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.59806403479842</v>
+        <v>19.70652290880213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.53398424146554</v>
+        <v>15.53311647803124</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.259234820594691</v>
+        <v>2.282997880918101</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.070619344783544</v>
+        <v>1.024003192573389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.259964102543418</v>
+        <v>2.239855660345872</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.265382276767101</v>
+        <v>1.200762871332174</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.152421301027941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.150468650560695</v>
+        <v>0.1504686505607006</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3395337778516113</v>
@@ -949,7 +949,7 @@
         <v>0.2663466267857189</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.008664080785153214</v>
+        <v>0.008664080785153535</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7090163320991977</v>
+        <v>0.6357462094442682</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.825432677995035</v>
+        <v>-1.980892790571547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09386930598488714</v>
+        <v>0.05216307271134963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.35267561975856</v>
+        <v>-3.254338458944415</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0606039318292289</v>
+        <v>0.04861377698835539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1147638321504719</v>
+        <v>-0.1263530420632674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005291691234327714</v>
+        <v>0.00181960713336828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1743721356016511</v>
+        <v>-0.1712492981463566</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.160970857386813</v>
+        <v>7.022940215785374</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.265809241306538</v>
+        <v>5.104121263948123</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.394343186308658</v>
+        <v>6.533659643446327</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.099113435594254</v>
+        <v>3.269341586870619</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7321580416764916</v>
+        <v>0.6995228105843263</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4168819350355776</v>
+        <v>0.4073404014659455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5970164426335137</v>
+        <v>0.6224772837176759</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1987770833416529</v>
+        <v>0.2076553687253233</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.961536070666346</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.553593883583449</v>
+        <v>9.553593883583448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3632596408980371</v>
@@ -1049,7 +1049,7 @@
         <v>0.6769148322126002</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5469652339964255</v>
+        <v>0.5469652339964253</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1393169802028988</v>
+        <v>-0.7549486048336728</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.00775409159757</v>
+        <v>9.926255423082013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.606950074527598</v>
+        <v>6.189222723646608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.222340970018988</v>
+        <v>5.398558673536105</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.006095828216711403</v>
+        <v>-0.05949721349103467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6319605960875347</v>
+        <v>0.5990729016243714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3339316002125068</v>
+        <v>0.3533932821230865</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2480334522036331</v>
+        <v>0.2618347811033413</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.928138331937134</v>
+        <v>8.656513286730744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.6050776726902</v>
+        <v>18.97521693918281</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.14163522322823</v>
+        <v>14.24524928710746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.69261500188143</v>
+        <v>13.79388095795219</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.000101068772049</v>
+        <v>0.9789432531495393</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.610321918134103</v>
+        <v>1.660367597813907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.109702258489576</v>
+        <v>1.137351331474545</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9109509874098926</v>
+        <v>0.9268244904633035</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>13.31303046780579</v>
+        <v>13.40326932675233</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>16.03621768229972</v>
+        <v>15.50117314957896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17.50149465983885</v>
+        <v>17.16318972715228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18.49713863015115</v>
+        <v>19.03450677471138</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.343903548870458</v>
+        <v>2.459868882386081</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.097158646321524</v>
+        <v>1.869048583592317</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.003718012641926</v>
+        <v>3.111001758949921</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>3.424901087795545</v>
+        <v>3.517375437280909</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.02061546058921</v>
+        <v>19.48061077165607</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.82352523994049</v>
+        <v>22.95309156369231</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24.40076778473698</v>
+        <v>24.35385771447204</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25.22101330099893</v>
+        <v>25.15137355561566</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10.67221253350447</v>
+        <v>11.89249706002443</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.916441847135333</v>
+        <v>7.714942117350768</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>17.80427513294963</v>
+        <v>20.49173699836416</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>21.59645492708096</v>
+        <v>20.91089386947626</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.918957839974736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.309631768992136</v>
+        <v>7.309631768992134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.805145223418255</v>
@@ -1249,7 +1249,7 @@
         <v>0.8489507577776337</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5387627988918749</v>
+        <v>0.5387627988918746</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.703996557130059</v>
+        <v>5.795943745528731</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.863873947490999</v>
+        <v>6.863347830276835</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.966196805560592</v>
+        <v>7.041127367456275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.717781500139306</v>
+        <v>5.652617235342602</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5939937533935564</v>
+        <v>0.5938977688440611</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5237820821105176</v>
+        <v>0.5399640281432901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.61921445071624</v>
+        <v>0.6125738497170823</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3903222762385583</v>
+        <v>0.3917536566988245</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.804663832720477</v>
+        <v>9.102920877145856</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.6710697243217</v>
+        <v>10.42849454790712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.54058915255567</v>
+        <v>10.63350728351887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.912685184560857</v>
+        <v>8.757144768511187</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.058012528779453</v>
+        <v>1.085695150689901</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9610715241536366</v>
+        <v>0.9498533401257437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.089631945265883</v>
+        <v>1.083088414802641</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7141848156165386</v>
+        <v>0.6972305815277414</v>
       </c>
     </row>
     <row r="25">
